--- a/myExcel.xlsx
+++ b/myExcel.xlsx
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Mayank</t>
   </si>
   <si>
     <t>Pratap</t>
-  </si>
-  <si>
-    <t>Singh</t>
   </si>
 </sst>
 </file>
@@ -363,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -371,19 +368,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
